--- a/biology/Médecine/Centre_hospitalier_universitaire_de_Turku/Centre_hospitalier_universitaire_de_Turku.xlsx
+++ b/biology/Médecine/Centre_hospitalier_universitaire_de_Turku/Centre_hospitalier_universitaire_de_Turku.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Centre hospitalier universitaire de Turku (finnois : Turun yliopistollinen keskussairaala) (TYKS) est un centre hospitalier universitaire situé dans le Quartier I à Turku en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Centre hospitalier universitaire de Turku (finnois : Turun yliopistollinen keskussairaala) (TYKS) est un centre hospitalier universitaire situé dans le Quartier I à Turku en Finlande.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre principal est situé à proximité du centre-ville et de l'université. 
 Le  CHU possède aussi des annexes à Raisio et Paimio. 
@@ -545,7 +559,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1756, l'hôpital est fondé le 17 décembre 1756 quand Adolphe-Frédéric de Suède signe l'acte fondateur du lazaret de Turku. L'établissement de 9 lits commence en 1759 au coin des actuelles rues Linnankatu et Läntinen Rantakatu. TYKS est donc le plus ancien hôpital de Finlande.
 1784, l'hôpital s'installe au coin des actuelles rues Linnankatu et Sairashuoneenkatu.
@@ -555,7 +571,7 @@
 1946, hôpital devient hôpital universitaire et en 1958 il devient le centre hospitalier universitaire.
 1968, la construction de l'hôpital U s'achève.
 1987, on rattache à TYKS le sanatorium de Paimio, en 2003, l'hôpital de Raisio et en 2004 l'hôpital chirurgical de Turku.
-2003, les activités du bâtiment U sont transférées dans le bâtiment T dont une partie vient d'être construite. Le bâtiment T sera entièrement terminé à la fin de 2012. L'ancien hôpital sera abandonné en 2018. Le corps médical aurait souhaité détruire ces anciens bâtiment mais la direction des musées de Finlande s'y est opposée[2],[3].</t>
+2003, les activités du bâtiment U sont transférées dans le bâtiment T dont une partie vient d'être construite. Le bâtiment T sera entièrement terminé à la fin de 2012. L'ancien hôpital sera abandonné en 2018. Le corps médical aurait souhaité détruire ces anciens bâtiment mais la direction des musées de Finlande s'y est opposée,.</t>
         </is>
       </c>
     </row>
@@ -583,9 +599,11 @@
           <t>Classement du site</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La direction des musées de Finlande a classé le site du Centre hospitalier universitaire de Turku parmi les Sites culturels construits d'intérêt national[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La direction des musées de Finlande a classé le site du Centre hospitalier universitaire de Turku parmi les Sites culturels construits d'intérêt national.
 </t>
         </is>
       </c>
